--- a/Organización/Catalogo/catalogo_productos.xlsx
+++ b/Organización/Catalogo/catalogo_productos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="164">
   <si>
     <t>Concepto</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</t>
   </si>
   <si>
-    <t>0min</t>
-  </si>
-  <si>
     <t>Paquete de 2 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota (Incluye 2 horas gratis por ser cliente distinguido)</t>
   </si>
   <si>
@@ -452,16 +449,7 @@
     <t>Servicio de Implementación de los Sistemas de Contpaq i® Servicio Vía Remota por hora</t>
   </si>
   <si>
-    <t>Paquete de días para capacitación en los Sistemas easy Retail Admin y Contpaq i®, Servicio Presencial</t>
-  </si>
-  <si>
-    <t>Servicio de Instalación y activación de los usuarios adicionales en red de Contpaqi Servicio Vía Remota</t>
-  </si>
-  <si>
     <t>Interfaz entre los Productos Contpaq i®</t>
-  </si>
-  <si>
-    <t>Precapacitación para la captura de información para la interfaz Servicio Vía Remota</t>
   </si>
   <si>
     <t>Join Data</t>
@@ -720,17 +708,24 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Thinstuff</t>
+    <t>2 semanas</t>
+  </si>
+  <si>
+    <t>240 min</t>
+  </si>
+  <si>
+    <t>120 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-80A]#,##0.00;[Red]\-[$$-80A]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -923,7 +918,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1017,6 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1388,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,13 +3703,13 @@
         <v>129</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D128" s="17">
-        <v>0</v>
+        <v>2625</v>
       </c>
       <c r="E128" s="17">
         <v>2625</v>
@@ -3724,7 +3720,7 @@
     </row>
     <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>95</v>
@@ -3733,7 +3729,7 @@
         <v>95</v>
       </c>
       <c r="D129" s="17">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E129" s="17">
         <v>1100</v>
@@ -3746,7 +3742,7 @@
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>16</v>
@@ -3755,7 +3751,7 @@
         <v>16</v>
       </c>
       <c r="D130" s="17">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E130" s="17">
         <v>1100</v>
@@ -3768,16 +3764,16 @@
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D131" s="17">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="E131" s="17">
         <v>0</v>
@@ -3790,16 +3786,16 @@
     </row>
     <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="D132" s="17">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E132" s="17">
         <v>0</v>
@@ -3812,16 +3808,16 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="D133" s="17">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E133" s="17">
         <v>0</v>
@@ -3834,16 +3830,16 @@
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="D134" s="17">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E134" s="17">
         <v>550</v>
@@ -3854,18 +3850,18 @@
       <c r="I134" s="18"/>
       <c r="J134" s="18"/>
     </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="D135" s="17">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="E135" s="17">
         <v>0</v>
@@ -3876,261 +3872,274 @@
       <c r="I135" s="18"/>
       <c r="J135" s="18"/>
     </row>
-    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D136" s="17">
-        <v>0</v>
-      </c>
-      <c r="E136" s="17">
-        <v>0</v>
-      </c>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
+    <row r="136" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D137" s="17">
-        <v>0</v>
-      </c>
-      <c r="E137" s="17">
-        <v>0</v>
-      </c>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-    </row>
-    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D138" s="17">
-        <v>0</v>
-      </c>
-      <c r="E138" s="17">
-        <v>0</v>
-      </c>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-    </row>
-    <row r="139" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D140" s="39">
+        <v>8400</v>
+      </c>
+      <c r="E140" s="20"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="16" t="s">
+      <c r="A142" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="22">
+        <v>39.9</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" s="33">
+        <v>18.05</v>
+      </c>
+      <c r="E142" s="27">
+        <f>B142*1.16*D142*1.5</f>
+        <v>1253.1392999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
+      <c r="B143" s="22">
+        <v>99</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" s="33"/>
+      <c r="E143" s="27">
+        <f>B143*1.16*D142*1.5</f>
+        <v>3109.2930000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="22">
+        <v>139</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="33"/>
+      <c r="E144" s="27">
+        <f>B144*1.16*D142*1.5</f>
+        <v>4365.5729999999994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="22">
+        <v>199</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145" s="33"/>
+      <c r="E145" s="27">
+        <f>B145*1.16*D142*1.5</f>
+        <v>6249.9929999999986</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D148" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E148" s="26" t="s">
+      <c r="A146" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="22">
+        <v>299</v>
+      </c>
+      <c r="C146" s="32" t="s">
         <v>160</v>
       </c>
+      <c r="D146" s="33"/>
+      <c r="E146" s="27">
+        <f>B146*1.16*D142*1.5</f>
+        <v>9390.6929999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="28"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="34">
+        <v>242</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" s="33"/>
+      <c r="E148" s="29">
+        <f>B148*1.16*D142*1.3</f>
+        <v>6587.0948000000008</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149" s="22">
-        <v>39.9</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D149" s="33">
-        <v>18.05</v>
-      </c>
-      <c r="E149" s="27">
-        <f>B149*1.16*D149*1.5</f>
-        <v>1253.1392999999998</v>
-      </c>
+      <c r="A149" s="24"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="29"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" s="22">
-        <v>99</v>
-      </c>
-      <c r="C150" s="32" t="s">
-        <v>164</v>
+      <c r="A150" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="34">
+        <v>290</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D150" s="33"/>
-      <c r="E150" s="27">
-        <f>B150*1.16*D149*1.5</f>
-        <v>3109.2930000000001</v>
+      <c r="E150" s="30">
+        <f>B150*1.16*D142*1.3</f>
+        <v>7893.6259999999993</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151" s="22">
-        <v>139</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>164</v>
-      </c>
+      <c r="A151" s="24"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="24"/>
       <c r="D151" s="33"/>
-      <c r="E151" s="27">
-        <f>B151*1.16*D149*1.5</f>
-        <v>4365.5729999999994</v>
-      </c>
+      <c r="E151" s="30"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" s="22">
-        <v>199</v>
-      </c>
-      <c r="C152" s="32" t="s">
-        <v>164</v>
+      <c r="A152" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="36">
+        <v>370</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="D152" s="33"/>
-      <c r="E152" s="27">
-        <f>B152*1.16*D149*1.5</f>
-        <v>6249.9929999999986</v>
+      <c r="E152" s="29">
+        <f>B152*1.16*D142*1.3</f>
+        <v>10071.178000000002</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" s="22">
-        <v>299</v>
-      </c>
-      <c r="C153" s="32" t="s">
-        <v>164</v>
-      </c>
+      <c r="A153" s="24"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="35"/>
       <c r="D153" s="33"/>
-      <c r="E153" s="27">
-        <f>B153*1.16*D149*1.5</f>
-        <v>9390.6929999999993</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
+      <c r="E153" s="29"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
+      <c r="B154" s="34">
+        <v>530</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="D154" s="33"/>
-      <c r="E154" s="28"/>
+      <c r="E154" s="29">
+        <f>B154*1.16*D142*1.3</f>
+        <v>14426.281999999999</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="24"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="29"/>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B155" s="34">
-        <v>242</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D155" s="33"/>
-      <c r="E155" s="29">
-        <f>B155*1.16*D149*1.3</f>
-        <v>6587.0948000000008</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="24"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="35"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
       <c r="D156" s="33"/>
-      <c r="E156" s="29"/>
+      <c r="E156" s="28"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B157" s="34">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D157" s="33"/>
-      <c r="E157" s="30">
-        <f>B157*1.16*D149*1.3</f>
-        <v>7893.6259999999993</v>
+      <c r="E157" s="29">
+        <f>B157*1.16*D142*1.3</f>
+        <v>11377.709199999999</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4138,194 +4147,116 @@
       <c r="B158" s="34"/>
       <c r="C158" s="24"/>
       <c r="D158" s="33"/>
-      <c r="E158" s="30"/>
+      <c r="E158" s="29"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B159" s="36">
-        <v>370</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>164</v>
+      <c r="B159" s="38">
+        <v>497</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="D159" s="33"/>
       <c r="E159" s="29">
-        <f>B159*1.16*D149*1.3</f>
-        <v>10071.178000000002</v>
+        <f>B159*1.16*D142*1.3</f>
+        <v>13528.041800000001</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="35"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="38"/>
+      <c r="C160" s="25"/>
       <c r="D160" s="33"/>
       <c r="E160" s="29"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B161" s="34">
-        <v>530</v>
-      </c>
-      <c r="C161" s="24" t="s">
-        <v>164</v>
+      <c r="B161" s="38">
+        <v>649</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="D161" s="33"/>
       <c r="E161" s="29">
-        <f>B161*1.16*D149*1.3</f>
-        <v>14426.281999999999</v>
+        <f>B161*1.16*D142*1.3</f>
+        <v>17665.390599999999</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="24"/>
-      <c r="B162" s="34"/>
-      <c r="C162" s="24"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="38"/>
+      <c r="C162" s="25"/>
       <c r="D162" s="33"/>
       <c r="E162" s="29"/>
     </row>
-    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="23" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
+      <c r="B163" s="34">
+        <v>913</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="D163" s="33"/>
-      <c r="E163" s="28"/>
+      <c r="E163" s="29">
+        <f>B163*1.16*D142*1.3</f>
+        <v>24851.3122</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B164" s="34">
-        <v>418</v>
-      </c>
-      <c r="C164" s="24" t="s">
-        <v>164</v>
-      </c>
+      <c r="A164" s="24"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="24"/>
       <c r="D164" s="33"/>
-      <c r="E164" s="29">
-        <f>B164*1.16*D149*1.3</f>
-        <v>11377.709199999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="24"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="29"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B166" s="38">
-        <v>497</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D166" s="33"/>
-      <c r="E166" s="29">
-        <f>B166*1.16*D149*1.3</f>
-        <v>13528.041800000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="25"/>
-      <c r="B167" s="38"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="29"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B168" s="38">
-        <v>649</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D168" s="33"/>
-      <c r="E168" s="29">
-        <f>B168*1.16*D149*1.3</f>
-        <v>17665.390599999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="25"/>
-      <c r="B169" s="38"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="29"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B170" s="34">
-        <v>913</v>
-      </c>
-      <c r="C170" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D170" s="33"/>
-      <c r="E170" s="29">
-        <f>B170*1.16*D149*1.3</f>
-        <v>24851.3122</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="29"/>
+      <c r="E164" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="D149:D171"/>
-    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
     <mergeCell ref="E157:E158"/>
     <mergeCell ref="B159:B160"/>
     <mergeCell ref="C159:C160"/>
     <mergeCell ref="E159:E160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="D142:D164"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
     <mergeCell ref="A2:E5"/>
     <mergeCell ref="A89:E91"/>
     <mergeCell ref="A124:E127"/>
-    <mergeCell ref="A139:E142"/>
+    <mergeCell ref="A136:E139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Organización/Catalogo/catalogo_productos.xlsx
+++ b/Organización/Catalogo/catalogo_productos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="192">
   <si>
     <t>Concepto</t>
   </si>
@@ -751,6 +751,54 @@
   </si>
   <si>
     <t>Producto</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Base Monoempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Adicional Monoempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Base Monoempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Adicional Monoempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Base Multiempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Adicional Multiempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Base Multiempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Star U. Adicional Multiempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Base Monoempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Adicional Monoempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Base Monoempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Adicional Monoempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Base Multiempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Adicional Multiempresa Producto Nuevo R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Base Multiempresa Renovación R</t>
+  </si>
+  <si>
+    <t>Contpaq i® Comercial Pro U. Adicional Multiempresa Renovación R</t>
   </si>
 </sst>
 </file>
@@ -1051,41 +1099,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,11 +1119,39 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1474,18 +1522,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C186" sqref="C186"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375"/>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
     <col min="2" max="2" width="24"/>
     <col min="3" max="3" width="34.42578125"/>
     <col min="4" max="4" width="23.85546875"/>
@@ -1511,34 +1559,34 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1842,7 +1890,7 @@
         <v>915</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" ref="E22:E32" si="0">D22-(D22*0.3)</f>
+        <f t="shared" ref="E22:E48" si="0">D22-(D22*0.3)</f>
         <v>640.5</v>
       </c>
     </row>
@@ -1956,7 +2004,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>14</v>
@@ -1965,34 +2013,34 @@
         <v>5</v>
       </c>
       <c r="D29" s="6">
-        <v>3390</v>
+        <v>1790</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="0"/>
-        <v>2373</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6">
-        <v>3390</v>
+        <v>490</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="0"/>
-        <v>2373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>5</v>
@@ -2001,178 +2049,178 @@
         <v>6</v>
       </c>
       <c r="D31" s="6">
-        <v>890</v>
+        <v>1790</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" s="6">
-        <v>890</v>
+        <v>490</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="6">
-        <v>2690</v>
+        <v>2290</v>
       </c>
       <c r="E33" s="7">
-        <f>D33-(D33*0.25)</f>
-        <v>2017.5</v>
+        <f t="shared" si="0"/>
+        <v>1603</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="6">
-        <v>3390</v>
+        <v>620</v>
       </c>
       <c r="E34" s="7">
-        <f>D34-(D34*0.25)</f>
-        <v>2542.5</v>
+        <f t="shared" si="0"/>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" s="6">
-        <v>3390</v>
+        <v>2290</v>
       </c>
       <c r="E35" s="7">
-        <f>D35-(D35*0.3)</f>
-        <v>2373</v>
+        <f t="shared" si="0"/>
+        <v>1603</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="6">
-        <v>5290</v>
+        <v>620</v>
       </c>
       <c r="E36" s="7">
-        <f>D36-(D36*0.3)</f>
-        <v>3703</v>
+        <f t="shared" si="0"/>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="6">
-        <v>726</v>
+        <v>4230</v>
       </c>
       <c r="E37" s="7">
-        <f>D37-(D37*0.25)</f>
-        <v>544.5</v>
+        <f t="shared" si="0"/>
+        <v>2961</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>915</v>
+        <v>1150</v>
       </c>
       <c r="E38" s="7">
-        <f>D38-(D38*0.25)</f>
-        <v>686.25</v>
+        <f t="shared" si="0"/>
+        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6">
-        <v>915</v>
+        <v>4230</v>
       </c>
       <c r="E39" s="7">
-        <f>D39-(D39*0.3)</f>
-        <v>640.5</v>
+        <f t="shared" si="0"/>
+        <v>2961</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1428</v>
+        <v>1150</v>
       </c>
       <c r="E40" s="7">
-        <f>D40-(D40*0.3)</f>
-        <v>999.6</v>
+        <f t="shared" si="0"/>
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>14</v>
@@ -2181,34 +2229,34 @@
         <v>5</v>
       </c>
       <c r="D41" s="6">
-        <v>1890</v>
+        <v>5790</v>
       </c>
       <c r="E41" s="7">
-        <f>D41-(D41*0.3)</f>
-        <v>1323</v>
+        <f t="shared" si="0"/>
+        <v>4053</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1890</v>
+        <v>1560</v>
       </c>
       <c r="E42" s="7">
-        <f>D42-(D42*0.3)</f>
-        <v>1323</v>
+        <f t="shared" si="0"/>
+        <v>1092</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>5</v>
@@ -2217,16 +2265,16 @@
         <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>2690</v>
+        <v>5790</v>
       </c>
       <c r="E43" s="7">
-        <f>D43-(D43*0.25)</f>
-        <v>2017.5</v>
+        <f t="shared" si="0"/>
+        <v>4053</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>5</v>
@@ -2235,34 +2283,34 @@
         <v>6</v>
       </c>
       <c r="D44" s="6">
-        <v>3390</v>
+        <v>1560</v>
       </c>
       <c r="E44" s="7">
-        <f>D44-(D44*0.25)</f>
-        <v>2542.5</v>
+        <f t="shared" si="0"/>
+        <v>1092</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6">
         <v>3390</v>
       </c>
       <c r="E45" s="7">
-        <f>D45-(D45*0.3)</f>
+        <f t="shared" si="0"/>
         <v>2373</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>5</v>
@@ -2271,16 +2319,16 @@
         <v>6</v>
       </c>
       <c r="D46" s="6">
-        <v>2640</v>
+        <v>3390</v>
       </c>
       <c r="E46" s="7">
-        <f>D46-(D46*0.3)</f>
-        <v>1848</v>
+        <f t="shared" si="0"/>
+        <v>2373</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
@@ -2289,34 +2337,34 @@
         <v>6</v>
       </c>
       <c r="D47" s="6">
-        <v>2640</v>
+        <v>890</v>
       </c>
       <c r="E47" s="7">
-        <f>D47-(D47*0.3)</f>
-        <v>1848</v>
+        <f t="shared" si="0"/>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D48" s="6">
-        <v>540</v>
+        <v>890</v>
       </c>
       <c r="E48" s="7">
-        <f>D48-(D48*0.3)</f>
-        <v>378</v>
+        <f t="shared" si="0"/>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>5</v>
@@ -2325,16 +2373,16 @@
         <v>6</v>
       </c>
       <c r="D49" s="6">
-        <v>540</v>
+        <v>2690</v>
       </c>
       <c r="E49" s="7">
-        <f>D49-(D49*0.3)</f>
-        <v>378</v>
+        <f>D49-(D49*0.25)</f>
+        <v>2017.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>5</v>
@@ -2343,70 +2391,70 @@
         <v>6</v>
       </c>
       <c r="D50" s="6">
-        <v>726</v>
+        <v>3390</v>
       </c>
       <c r="E50" s="7">
         <f>D50-(D50*0.25)</f>
-        <v>544.5</v>
+        <v>2542.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D51" s="6">
-        <v>915</v>
+        <v>3390</v>
       </c>
       <c r="E51" s="7">
-        <f>D51-(D51*0.25)</f>
-        <v>686.25</v>
+        <f>D51-(D51*0.3)</f>
+        <v>2373</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6">
-        <v>1428</v>
+        <v>5290</v>
       </c>
       <c r="E52" s="7">
         <f>D52-(D52*0.3)</f>
-        <v>999.6</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" s="6">
-        <v>915</v>
+        <v>726</v>
       </c>
       <c r="E53" s="7">
-        <f>D53-(D53*0.3)</f>
-        <v>640.5</v>
+        <f>D53-(D53*0.25)</f>
+        <v>544.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>5</v>
@@ -2415,106 +2463,106 @@
         <v>6</v>
       </c>
       <c r="D54" s="6">
-        <v>740</v>
+        <v>915</v>
       </c>
       <c r="E54" s="7">
-        <f>D54-(D54*0.3)</f>
-        <v>518</v>
+        <f>D54-(D54*0.25)</f>
+        <v>686.25</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D55" s="6">
-        <v>740</v>
+        <v>915</v>
       </c>
       <c r="E55" s="7">
         <f>D55-(D55*0.3)</f>
-        <v>518</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6">
-        <v>2690</v>
+        <v>1428</v>
       </c>
       <c r="E56" s="7">
-        <f>D56-(D56*0.25)</f>
-        <v>2017.5</v>
+        <f>D56-(D56*0.3)</f>
+        <v>999.6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" s="6">
-        <v>3390</v>
+        <v>1890</v>
       </c>
       <c r="E57" s="7">
-        <f>D57-(D57*0.25)</f>
-        <v>2542.5</v>
+        <f>D57-(D57*0.3)</f>
+        <v>1323</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="6">
-        <v>3390</v>
+        <v>1890</v>
       </c>
       <c r="E58" s="7">
         <f>D58-(D58*0.3)</f>
-        <v>2373</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>3390</v>
+        <v>2690</v>
       </c>
       <c r="E59" s="7">
-        <f>D59-(D59*0.3)</f>
-        <v>2373</v>
+        <f>D59-(D59*0.25)</f>
+        <v>2017.5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>5</v>
@@ -2526,31 +2574,31 @@
         <v>3390</v>
       </c>
       <c r="E60" s="7">
-        <f>D60-(D60*0.3)</f>
-        <v>2373</v>
+        <f>D60-(D60*0.25)</f>
+        <v>2542.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" s="6">
-        <v>726</v>
+        <v>3390</v>
       </c>
       <c r="E61" s="7">
-        <f>D61-(D61*0.25)</f>
-        <v>544.5</v>
+        <f>D61-(D61*0.3)</f>
+        <v>2373</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>5</v>
@@ -2559,70 +2607,70 @@
         <v>6</v>
       </c>
       <c r="D62" s="6">
-        <v>915</v>
+        <v>2640</v>
       </c>
       <c r="E62" s="7">
         <f>D62-(D62*0.3)</f>
-        <v>640.5</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" s="6">
-        <v>1428</v>
+        <v>2640</v>
       </c>
       <c r="E63" s="7">
         <f>D63-(D63*0.3)</f>
-        <v>999.6</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="6">
-        <v>890</v>
+        <v>540</v>
       </c>
       <c r="E64" s="7">
         <f>D64-(D64*0.3)</f>
-        <v>623</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" s="6">
-        <v>915</v>
+        <v>540</v>
       </c>
       <c r="E65" s="7">
         <f>D65-(D65*0.3)</f>
-        <v>640.5</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>5</v>
@@ -2631,16 +2679,16 @@
         <v>6</v>
       </c>
       <c r="D66" s="6">
-        <v>890</v>
+        <v>726</v>
       </c>
       <c r="E66" s="7">
-        <f>D66-(D66*0.3)</f>
-        <v>623</v>
+        <f>D66-(D66*0.25)</f>
+        <v>544.5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>5</v>
@@ -2649,34 +2697,34 @@
         <v>6</v>
       </c>
       <c r="D67" s="6">
-        <v>1590</v>
+        <v>915</v>
       </c>
       <c r="E67" s="7">
         <f>D67-(D67*0.25)</f>
-        <v>1192.5</v>
+        <v>686.25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D68" s="6">
-        <v>1990</v>
+        <v>1428</v>
       </c>
       <c r="E68" s="7">
-        <f>D68-(D68*0.25)</f>
-        <v>1492.5</v>
+        <f>D68-(D68*0.3)</f>
+        <v>999.6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>6</v>
@@ -2685,34 +2733,34 @@
         <v>9</v>
       </c>
       <c r="D69" s="6">
-        <v>1990</v>
+        <v>915</v>
       </c>
       <c r="E69" s="7">
         <f>D69-(D69*0.3)</f>
-        <v>1393</v>
+        <v>640.5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>2990</v>
+        <v>740</v>
       </c>
       <c r="E70" s="7">
         <f>D70-(D70*0.3)</f>
-        <v>2093</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>5</v>
@@ -2721,16 +2769,16 @@
         <v>6</v>
       </c>
       <c r="D71" s="6">
-        <v>1034</v>
+        <v>740</v>
       </c>
       <c r="E71" s="7">
-        <f>D71-(D71*0.25)</f>
-        <v>775.5</v>
+        <f>D71-(D71*0.3)</f>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>5</v>
@@ -2739,34 +2787,34 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>1294</v>
+        <v>2690</v>
       </c>
       <c r="E72" s="7">
         <f>D72-(D72*0.25)</f>
-        <v>970.5</v>
+        <v>2017.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73" s="6">
-        <v>1294</v>
+        <v>3390</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" ref="E73:E88" si="1">D73-(D73*0.3)</f>
-        <v>905.8</v>
+        <f>D73-(D73*0.25)</f>
+        <v>2542.5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>14</v>
@@ -2775,643 +2823,579 @@
         <v>5</v>
       </c>
       <c r="D74" s="6">
+        <v>3390</v>
+      </c>
+      <c r="E74" s="7">
+        <f>D74-(D74*0.3)</f>
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="6">
+        <v>3390</v>
+      </c>
+      <c r="E75" s="7">
+        <f>D75-(D75*0.3)</f>
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3390</v>
+      </c>
+      <c r="E76" s="7">
+        <f>D76-(D76*0.3)</f>
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6">
+        <v>726</v>
+      </c>
+      <c r="E77" s="7">
+        <f>D77-(D77*0.25)</f>
+        <v>544.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="6">
+        <v>915</v>
+      </c>
+      <c r="E78" s="7">
+        <f>D78-(D78*0.3)</f>
+        <v>640.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1428</v>
+      </c>
+      <c r="E79" s="7">
+        <f>D79-(D79*0.3)</f>
+        <v>999.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="6">
+        <v>890</v>
+      </c>
+      <c r="E80" s="7">
+        <f>D80-(D80*0.3)</f>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="6">
+        <v>915</v>
+      </c>
+      <c r="E81" s="7">
+        <f>D81-(D81*0.3)</f>
+        <v>640.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6">
+        <v>890</v>
+      </c>
+      <c r="E82" s="7">
+        <f>D82-(D82*0.3)</f>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1590</v>
+      </c>
+      <c r="E83" s="7">
+        <f>D83-(D83*0.25)</f>
+        <v>1192.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1990</v>
+      </c>
+      <c r="E84" s="7">
+        <f>D84-(D84*0.25)</f>
+        <v>1492.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1990</v>
+      </c>
+      <c r="E85" s="7">
+        <f>D85-(D85*0.3)</f>
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2990</v>
+      </c>
+      <c r="E86" s="7">
+        <f>D86-(D86*0.3)</f>
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1034</v>
+      </c>
+      <c r="E87" s="7">
+        <f>D87-(D87*0.25)</f>
+        <v>775.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1294</v>
+      </c>
+      <c r="E88" s="7">
+        <f>D88-(D88*0.25)</f>
+        <v>970.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1294</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" ref="E89:E104" si="1">D89-(D89*0.3)</f>
+        <v>905.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="6">
         <v>1944</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E90" s="7">
         <f t="shared" si="1"/>
         <v>1360.8000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D91" s="10">
         <v>990</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E91" s="11">
         <f t="shared" si="1"/>
         <v>693</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="10">
+      <c r="B92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="10">
         <v>1490</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E92" s="11">
         <f t="shared" si="1"/>
         <v>1043</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="B93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="10">
         <v>1990</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E93" s="11">
         <f t="shared" si="1"/>
         <v>1393</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="B94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D94" s="10">
         <v>1990</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E94" s="11">
         <f t="shared" si="1"/>
         <v>1393</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="10">
+      <c r="B95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="10">
         <v>1990</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E95" s="11">
         <f t="shared" si="1"/>
         <v>1393</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="B96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D96" s="10">
         <v>1990</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E96" s="11">
         <f t="shared" si="1"/>
         <v>1393</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="10">
+      <c r="B97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="10">
         <v>13750</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E97" s="11">
         <f t="shared" si="1"/>
         <v>9625</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="10">
+      <c r="B98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="10">
         <v>3100</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E98" s="11">
         <f t="shared" si="1"/>
         <v>2170</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="9" t="s">
+      <c r="B99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D99" s="10">
         <v>13750</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E99" s="11">
         <f t="shared" si="1"/>
         <v>9625</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="9" t="s">
+      <c r="B100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D100" s="10">
         <v>3100</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E100" s="11">
         <f t="shared" si="1"/>
         <v>2170</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="10">
+      <c r="B101" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="10">
         <v>3500</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E101" s="11">
         <f t="shared" si="1"/>
         <v>2450</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="9" t="s">
+      <c r="B102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D102" s="10">
         <v>1790</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E102" s="11">
         <f t="shared" si="1"/>
         <v>1253</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="B103" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="10">
         <v>3580</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E103" s="11">
         <f t="shared" si="1"/>
         <v>2506</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="B104" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="10">
         <v>1790</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E104" s="11">
         <f t="shared" si="1"/>
         <v>1253</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="35"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="35"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92" s="13">
-        <v>7154.88</v>
-      </c>
-      <c r="E92" s="13">
-        <v>10280</v>
-      </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-    </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="13">
-        <v>2143.6799999999998</v>
-      </c>
-      <c r="E93" s="13">
-        <v>3080</v>
-      </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-    </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="13">
-        <v>5994.3</v>
-      </c>
-      <c r="E94" s="13">
-        <v>7950</v>
-      </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="13">
-        <v>1470.3</v>
-      </c>
-      <c r="E95" s="13">
-        <v>1950</v>
-      </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="13">
-        <v>5092.5200000000004</v>
-      </c>
-      <c r="E96" s="13">
-        <v>6754</v>
-      </c>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-    </row>
-    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="13">
-        <v>1247.1199999999999</v>
-      </c>
-      <c r="E97" s="13">
-        <v>1654</v>
-      </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="13">
-        <v>5533.2</v>
-      </c>
-      <c r="E98" s="13">
-        <v>7950</v>
-      </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="13">
-        <v>1357.2</v>
-      </c>
-      <c r="E99" s="13">
-        <v>1950</v>
-      </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D100" s="13">
-        <v>1385.04</v>
-      </c>
-      <c r="E100" s="13">
-        <v>1990</v>
-      </c>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="13">
-        <v>480.24</v>
-      </c>
-      <c r="E101" s="13">
-        <v>690</v>
-      </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="13">
-        <v>1155.8800000000001</v>
-      </c>
-      <c r="E102" s="13">
-        <v>1533</v>
-      </c>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="13">
-        <v>0</v>
-      </c>
-      <c r="E103" s="13">
-        <v>532</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-    </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="13">
-        <v>0</v>
-      </c>
-      <c r="E104" s="13">
-        <v>1314</v>
-      </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="13">
-        <v>0</v>
-      </c>
-      <c r="E105" s="13">
-        <v>456</v>
-      </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="13">
-        <v>0</v>
-      </c>
-      <c r="E106" s="13">
-        <v>1533</v>
-      </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="13">
-        <v>370.27</v>
-      </c>
-      <c r="E107" s="13">
-        <v>532</v>
-      </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>14</v>
@@ -3420,10 +3404,10 @@
         <v>78</v>
       </c>
       <c r="D108" s="13">
-        <v>1733.04</v>
+        <v>7154.88</v>
       </c>
       <c r="E108" s="13">
-        <v>2490</v>
+        <v>10280</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -3433,7 +3417,7 @@
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>6</v>
@@ -3442,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="D109" s="13">
-        <v>619.44000000000005</v>
+        <v>2143.6799999999998</v>
       </c>
       <c r="E109" s="13">
-        <v>890</v>
+        <v>3080</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
@@ -3455,7 +3439,7 @@
     </row>
     <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>81</v>
@@ -3464,10 +3448,10 @@
         <v>6</v>
       </c>
       <c r="D110" s="13">
-        <v>1446.17</v>
+        <v>5994.3</v>
       </c>
       <c r="E110" s="13">
-        <v>1918</v>
+        <v>7950</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14"/>
@@ -3477,7 +3461,7 @@
     </row>
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>81</v>
@@ -3486,10 +3470,10 @@
         <v>6</v>
       </c>
       <c r="D111" s="13">
-        <v>517.24</v>
+        <v>1470.3</v>
       </c>
       <c r="E111" s="13">
-        <v>686</v>
+        <v>1950</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -3499,7 +3483,7 @@
     </row>
     <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>81</v>
@@ -3508,10 +3492,10 @@
         <v>6</v>
       </c>
       <c r="D112" s="13">
-        <v>1239.58</v>
+        <v>5092.5200000000004</v>
       </c>
       <c r="E112" s="13">
-        <v>1644</v>
+        <v>6754</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
@@ -3521,7 +3505,7 @@
     </row>
     <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>81</v>
@@ -3530,10 +3514,10 @@
         <v>6</v>
       </c>
       <c r="D113" s="13">
-        <v>443.35</v>
+        <v>1247.1199999999999</v>
       </c>
       <c r="E113" s="13">
-        <v>588</v>
+        <v>1654</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
@@ -3543,7 +3527,7 @@
     </row>
     <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>14</v>
@@ -3552,10 +3536,10 @@
         <v>14</v>
       </c>
       <c r="D114" s="13">
-        <v>1334.93</v>
+        <v>5533.2</v>
       </c>
       <c r="E114" s="13">
-        <v>1918</v>
+        <v>7950</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
@@ -3565,19 +3549,19 @@
     </row>
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="13">
-        <v>477.46</v>
+        <v>1357.2</v>
       </c>
       <c r="E115" s="13">
-        <v>686</v>
+        <v>1950</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
@@ -3585,9 +3569,9 @@
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>14</v>
@@ -3596,10 +3580,10 @@
         <v>78</v>
       </c>
       <c r="D116" s="13">
-        <v>2081.04</v>
+        <v>1385.04</v>
       </c>
       <c r="E116" s="13">
-        <v>2990</v>
+        <v>1990</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -3607,9 +3591,9 @@
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>6</v>
@@ -3618,10 +3602,10 @@
         <v>5</v>
       </c>
       <c r="D117" s="13">
-        <v>1385.04</v>
+        <v>480.24</v>
       </c>
       <c r="E117" s="13">
-        <v>1990</v>
+        <v>690</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
@@ -3629,21 +3613,21 @@
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" s="13">
-        <v>1736.46</v>
+        <v>1155.8800000000001</v>
       </c>
       <c r="E118" s="13">
-        <v>2303</v>
+        <v>1533</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -3653,19 +3637,19 @@
     </row>
     <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D119" s="13">
-        <v>1155.8800000000001</v>
+        <v>0</v>
       </c>
       <c r="E119" s="13">
-        <v>1533</v>
+        <v>532</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
@@ -3673,21 +3657,21 @@
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D120" s="13">
-        <v>1488.4</v>
+        <v>0</v>
       </c>
       <c r="E120" s="13">
-        <v>1974</v>
+        <v>1314</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
@@ -3697,19 +3681,19 @@
     </row>
     <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121" s="13">
-        <v>990.76</v>
+        <v>0</v>
       </c>
       <c r="E121" s="13">
-        <v>1314</v>
+        <v>456</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
@@ -3717,21 +3701,21 @@
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="13">
-        <v>1602.89</v>
+        <v>0</v>
       </c>
       <c r="E122" s="13">
-        <v>2303</v>
+        <v>1533</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
@@ -3739,9 +3723,9 @@
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>14</v>
@@ -3750,10 +3734,10 @@
         <v>14</v>
       </c>
       <c r="D123" s="13">
-        <v>1066.97</v>
+        <v>370.27</v>
       </c>
       <c r="E123" s="13">
-        <v>1533</v>
+        <v>532</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
@@ -3761,71 +3745,131 @@
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" s="13">
+        <v>1733.04</v>
+      </c>
+      <c r="E124" s="13">
+        <v>2490</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+    </row>
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="13">
+        <v>619.44000000000005</v>
+      </c>
+      <c r="E125" s="13">
+        <v>890</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="13">
+        <v>1446.17</v>
+      </c>
+      <c r="E126" s="13">
+        <v>1918</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="13">
+        <v>517.24</v>
+      </c>
+      <c r="E127" s="13">
+        <v>686</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="D128" s="13">
-        <v>2625</v>
+        <v>1239.58</v>
       </c>
       <c r="E128" s="13">
-        <v>2625</v>
+        <v>1644</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
-    </row>
-    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+    </row>
+    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D129" s="13">
-        <v>1100</v>
+        <v>443.35</v>
       </c>
       <c r="E129" s="13">
-        <v>1100</v>
+        <v>588</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
@@ -3835,7 +3879,7 @@
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>14</v>
@@ -3844,10 +3888,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="13">
-        <v>1100</v>
+        <v>1334.93</v>
       </c>
       <c r="E130" s="13">
-        <v>1100</v>
+        <v>1918</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
@@ -3857,19 +3901,19 @@
     </row>
     <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="D131" s="13">
-        <v>3250</v>
+        <v>477.46</v>
       </c>
       <c r="E131" s="13">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
@@ -3877,21 +3921,21 @@
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
     </row>
-    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D132" s="13">
-        <v>550</v>
+        <v>2081.04</v>
       </c>
       <c r="E132" s="13">
-        <v>0</v>
+        <v>2990</v>
       </c>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
@@ -3901,19 +3945,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D133" s="13">
-        <v>550</v>
+        <v>1385.04</v>
       </c>
       <c r="E133" s="13">
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
@@ -3921,21 +3965,21 @@
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="13">
-        <v>550</v>
+        <v>1736.46</v>
       </c>
       <c r="E134" s="13">
-        <v>550</v>
+        <v>2303</v>
       </c>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
@@ -3943,21 +3987,21 @@
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" s="13">
-        <v>1890</v>
+        <v>1155.8800000000001</v>
       </c>
       <c r="E135" s="13">
-        <v>0</v>
+        <v>1533</v>
       </c>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -3965,523 +4009,815 @@
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="45" t="s">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="13">
+        <v>1488.4</v>
+      </c>
+      <c r="E136" s="13">
+        <v>1974</v>
+      </c>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="13">
+        <v>990.76</v>
+      </c>
+      <c r="E137" s="13">
+        <v>1314</v>
+      </c>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="13">
+        <v>1602.89</v>
+      </c>
+      <c r="E138" s="13">
+        <v>2303</v>
+      </c>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="13">
+        <v>1066.97</v>
+      </c>
+      <c r="E139" s="13">
+        <v>1533</v>
+      </c>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+    </row>
+    <row r="140" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="36"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+    </row>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D144" s="13">
+        <v>2625</v>
+      </c>
+      <c r="E144" s="13">
+        <v>2625</v>
+      </c>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+    </row>
+    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D145" s="13">
+        <v>1100</v>
+      </c>
+      <c r="E145" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+    </row>
+    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="13">
+        <v>1100</v>
+      </c>
+      <c r="E146" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" s="13">
+        <v>3250</v>
+      </c>
+      <c r="E147" s="13">
+        <v>0</v>
+      </c>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="13">
+        <v>550</v>
+      </c>
+      <c r="E148" s="13">
+        <v>0</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="13">
+        <v>550</v>
+      </c>
+      <c r="E149" s="13">
+        <v>0</v>
+      </c>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+    </row>
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="13">
+        <v>550</v>
+      </c>
+      <c r="E150" s="13">
+        <v>550</v>
+      </c>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="13">
+        <v>1890</v>
+      </c>
+      <c r="E151" s="13">
+        <v>0</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="45"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="45"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="45"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
-    </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="37"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="37"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="37"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="37"/>
+    </row>
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B156" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C156" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D156" s="15">
         <v>8400</v>
       </c>
-      <c r="E140" s="16"/>
-    </row>
-    <row r="141" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="45" t="s">
+      <c r="E156" s="16"/>
+    </row>
+    <row r="157" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="37"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B158" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C158" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="D158" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E158" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B159" s="20">
         <v>39.9</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D143" s="38">
+      <c r="D159" s="42">
         <v>18.05</v>
       </c>
-      <c r="E143" s="21">
-        <f>B143*1.16*D143*1.5</f>
+      <c r="E159" s="21">
+        <f>B159*1.16*D159*1.5</f>
         <v>1253.1392999999998</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B160" s="20">
         <v>99</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="21">
-        <f>B144*1.16*D143*1.5</f>
+      <c r="D160" s="42"/>
+      <c r="E160" s="21">
+        <f>B160*1.16*D159*1.5</f>
         <v>3109.2930000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B145" s="20">
+      <c r="B161" s="20">
         <v>139</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D145" s="38"/>
-      <c r="E145" s="21">
-        <f>B145*1.16*D143*1.5</f>
+      <c r="D161" s="42"/>
+      <c r="E161" s="21">
+        <f>B161*1.16*D159*1.5</f>
         <v>4365.5729999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B162" s="20">
         <v>199</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="21">
-        <f>B146*1.16*D143*1.5</f>
+      <c r="D162" s="42"/>
+      <c r="E162" s="21">
+        <f>B162*1.16*D159*1.5</f>
         <v>6249.9929999999986</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="20" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B147" s="20">
+      <c r="B163" s="20">
         <v>299</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="38"/>
-      <c r="E147" s="21">
-        <f>B147*1.16*D143*1.5</f>
+      <c r="D163" s="42"/>
+      <c r="E163" s="21">
+        <f>B163*1.16*D159*1.5</f>
         <v>9390.6929999999993</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="22" t="s">
+    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="23"/>
-    </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="32" t="s">
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="23"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B149" s="33">
+      <c r="B165" s="41">
         <v>242</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C165" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="34">
-        <f>B149*1.16*D143*1.3</f>
+      <c r="D165" s="42"/>
+      <c r="E165" s="39">
+        <f>B165*1.16*D159*1.3</f>
         <v>6587.0948000000008</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="38"/>
-      <c r="E150" s="34"/>
-    </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="32" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="40"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="39"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B151" s="33">
+      <c r="B167" s="41">
         <v>290</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C167" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D151" s="38"/>
-      <c r="E151" s="40">
-        <f>B151*1.16*D143*1.3</f>
+      <c r="D167" s="42"/>
+      <c r="E167" s="43">
+        <f>B167*1.16*D159*1.3</f>
         <v>7893.6259999999993</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="32"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="40"/>
-    </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="32" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="40"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="43"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B153" s="41">
+      <c r="B169" s="44">
         <v>370</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="C169" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D153" s="38"/>
-      <c r="E153" s="34">
-        <f>B153*1.16*D143*1.3</f>
+      <c r="D169" s="42"/>
+      <c r="E169" s="39">
+        <f>B169*1.16*D159*1.3</f>
         <v>10071.178000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
-      <c r="B154" s="41"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="34"/>
-    </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="32" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="40"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="39"/>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="33">
+      <c r="B171" s="41">
         <v>530</v>
       </c>
-      <c r="C155" s="32" t="s">
+      <c r="C171" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D155" s="38"/>
-      <c r="E155" s="34">
-        <f>B155*1.16*D143*1.3</f>
+      <c r="D171" s="42"/>
+      <c r="E171" s="39">
+        <f>B171*1.16*D159*1.3</f>
         <v>14426.281999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="32"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="38"/>
-      <c r="E156" s="34"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="22" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="40"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="39"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="23"/>
-    </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="32" t="s">
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="23"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B158" s="33">
+      <c r="B174" s="41">
         <v>418</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="C174" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D158" s="38"/>
-      <c r="E158" s="34">
-        <f>B158*1.16*D143*1.3</f>
+      <c r="D174" s="42"/>
+      <c r="E174" s="39">
+        <f>B174*1.16*D159*1.3</f>
         <v>11377.709199999999</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="32"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="34"/>
-    </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="36" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="40"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="39"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="B160" s="37">
+      <c r="B176" s="46">
         <v>497</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C176" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="34">
-        <f>B160*1.16*D143*1.3</f>
+      <c r="D176" s="42"/>
+      <c r="E176" s="39">
+        <f>B176*1.16*D159*1.3</f>
         <v>13528.041800000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="36"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="34"/>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="36" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="45"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="45"/>
+      <c r="D177" s="42"/>
+      <c r="E177" s="39"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B162" s="37">
+      <c r="B178" s="46">
         <v>649</v>
       </c>
-      <c r="C162" s="36" t="s">
+      <c r="C178" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D162" s="38"/>
-      <c r="E162" s="34">
-        <f>B162*1.16*D143*1.3</f>
+      <c r="D178" s="42"/>
+      <c r="E178" s="39">
+        <f>B178*1.16*D159*1.3</f>
         <v>17665.390599999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="38"/>
-      <c r="E163" s="34"/>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="32" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="45"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="45"/>
+      <c r="D179" s="42"/>
+      <c r="E179" s="39"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B164" s="33">
+      <c r="B180" s="41">
         <v>913</v>
       </c>
-      <c r="C164" s="32" t="s">
+      <c r="C180" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D164" s="38"/>
-      <c r="E164" s="34">
-        <f>B164*1.16*D143*1.3</f>
+      <c r="D180" s="42"/>
+      <c r="E180" s="39">
+        <f>B180*1.16*D159*1.3</f>
         <v>24851.3122</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="38"/>
-      <c r="E165" s="34"/>
-    </row>
-    <row r="170" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="35" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="40"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="42"/>
+      <c r="E181" s="39"/>
+    </row>
+    <row r="186" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B170" s="35"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="26"/>
-    </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="35"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="27"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="28"/>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="29" t="s">
+      <c r="B186" s="33"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="26"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="33"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="28"/>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B188" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="31">
+      <c r="B189" s="48">
         <v>644.97</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="30"/>
-      <c r="B174" s="31"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="30" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="47"/>
+      <c r="B190" s="48"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B175" s="31">
+      <c r="B191" s="48">
         <v>2145</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="30"/>
-      <c r="B176" s="31"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="30" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="47"/>
+      <c r="B192" s="48"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B177" s="31">
+      <c r="B193" s="48">
         <v>2950</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="30"/>
-      <c r="B178" s="31"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="30" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="47"/>
+      <c r="B194" s="48"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B179" s="31">
+      <c r="B195" s="48">
         <v>4550</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="30"/>
-      <c r="B180" s="31"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="46" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="47"/>
+      <c r="B196" s="48"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B181" s="47">
+      <c r="B197" s="32">
         <v>5500</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="46"/>
-      <c r="B182" s="47"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="35" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="31"/>
+      <c r="B198" s="32"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B184" s="35"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="35"/>
-    </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="29" t="s">
+      <c r="B200" s="33"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B186" s="29" t="s">
+      <c r="B202" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="23" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="48">
+      <c r="B203" s="30">
         <v>1900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A184:B185"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="A186:B187"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="D159:D181"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="A200:B201"/>
     <mergeCell ref="A2:E5"/>
-    <mergeCell ref="A89:E91"/>
-    <mergeCell ref="A124:E127"/>
-    <mergeCell ref="A136:E139"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="D143:D165"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="A170:B171"/>
-    <mergeCell ref="A173:A174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A105:E107"/>
+    <mergeCell ref="A140:E143"/>
+    <mergeCell ref="A152:E155"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
